--- a/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{4800127A-A9D4-443B-8A09-71AEF7099565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1CF7311C-8133-444A-9CDB-6F6DF2DF8815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="960" windowWidth="24090" windowHeight="14250" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
-    <sheet name="soln1" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -217,10 +217,10 @@
     <t>Your Name Here</t>
   </si>
   <si>
-    <t>I do exactly this problem in the "Extra Help and Instructions" post. The problem I do there is choose 4 balls from 7 numbered balls and get exactly 2 correct. Your problem is choose 5 balls from 40 and get exactly 3 correct.</t>
-  </si>
-  <si>
     <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <t>Read the "Extra Help and Instructions" post for a hint.</t>
   </si>
 </sst>
 </file>
@@ -230,7 +230,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +357,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1011,43 +1020,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1161,19 +1170,12 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" diskRevisions="1" version="2">
-  <header guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" dateTime="2022-07-20T14:02:08" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}">
+  <header guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}" dateTime="2023-01-19T09:57:44" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
       <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" dateTime="2022-07-20T14:43:33" maxSheetId="4" userName="Richard Ketchersid" r:id="rId2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="3"/>
-      <sheetId val="2"/>
     </sheetIdMap>
   </header>
 </headers>
@@ -1183,17 +1185,9 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" action="delete"/>
-  <rcv guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" action="add"/>
-</revisions>
-</file>
-
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="2">
-  <userInfo guid="{60149C6C-3A13-4D95-9AA9-A8CF4215EB80}" name="Richard Ketchersid" id="-1739571840" dateTime="2022-07-20T14:02:08"/>
-  <userInfo guid="{055909E6-47D3-4A97-AC8D-BCC462AC79EF}" name="Richard Ketchersid" id="-1739548797" dateTime="2022-07-20T14:43:14"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}" name="Richard Ketchersid" id="-1739582647" dateTime="2023-01-19T09:57:44"/>
 </users>
 </file>
 
@@ -1462,27 +1456,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="23" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" customWidth="1"/>
+    <col min="11" max="11" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="71" t="s">
         <v>43</v>
       </c>
@@ -1490,16 +1484,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="70"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="75"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="82" t="s">
         <v>42</v>
       </c>
@@ -1510,7 +1504,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="83"/>
       <c r="B6" s="27" t="s">
         <v>39</v>
@@ -1520,7 +1514,7 @@
       </c>
       <c r="F6" s="72"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="84"/>
       <c r="B7" s="29" t="s">
         <v>16</v>
@@ -1529,7 +1523,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1531,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
@@ -1545,7 +1539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="33" t="s">
         <v>22</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1582,7 +1576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1609,7 @@
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1625,7 @@
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>6</v>
       </c>
@@ -1647,7 +1641,7 @@
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
         <v>2</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
         <v>3</v>
       </c>
@@ -1679,7 +1673,7 @@
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>27</v>
       </c>
@@ -1695,65 +1689,65 @@
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F20" s="76" t="s">
         <v>40</v>
       </c>
       <c r="G20" s="77"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F21" s="78"/>
       <c r="G21" s="79"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F22" s="78"/>
       <c r="G22" s="79"/>
     </row>
-    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="80"/>
       <c r="G23" s="81"/>
     </row>
-    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="88"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="90"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="88"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-    </row>
-    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="91"/>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="90"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="91"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="91"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F28" s="94"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="96"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0">
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0" topLeftCell="B1">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1826,30 +1820,30 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="71.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="38" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="39" customWidth="1"/>
-    <col min="8" max="8" width="15.75" style="40" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.875" style="40" customWidth="1"/>
-    <col min="11" max="11" width="23.25" style="40" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="38" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="39" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="39" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="23.19921875" style="40" customWidth="1"/>
     <col min="12" max="16384" width="11" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="95" t="s">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="96"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="86"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="42" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" s="44" t="s">
         <v>16</v>
       </c>
@@ -1865,7 +1859,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="46" t="s">
         <v>18</v>
       </c>
@@ -1873,7 +1867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" s="47" t="s">
         <v>20</v>
       </c>
@@ -1881,7 +1875,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
         <v>22</v>
       </c>
@@ -1889,8 +1883,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" s="52" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:9" s="52" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A9" s="50" t="s">
         <v>0</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="53" t="s">
         <v>4</v>
       </c>
@@ -1952,7 +1946,7 @@
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="53" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +1979,7 @@
         <v>Your odds of winning are 1 to 6839!</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>Your odds of winning are 1 to 116279!</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64" t="s">
         <v>2</v>
       </c>
@@ -2051,7 +2045,7 @@
         <v>Your odds of winning are 1 to 5527199!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64" t="s">
         <v>3</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>Your odds of winning are 1 to 658007!</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="67" t="s">
         <v>27</v>
       </c>
@@ -2118,22 +2112,22 @@
         <v>Your odds of winning are 1 to 109.589579831933!</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G16" s="69"/>
     </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G17" s="69"/>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18" s="69"/>
     </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G19" s="69"/>
     </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G20" s="69"/>
     </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G21" s="69"/>
     </row>
   </sheetData>
@@ -2161,58 +2155,58 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:80_{1CF7311C-8133-444A-9CDB-6F6DF2DF8815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:81_{21EF9984-3F0C-4CC3-8676-25E8219F77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11519DAC-B3C4-4507-A8BF-7C82ABFEA9B7}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
-    <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="soln1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>Game</t>
   </si>
@@ -367,7 +367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -422,6 +422,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -725,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -745,9 +751,6 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -756,16 +759,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,9 +775,6 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -985,6 +979,27 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1020,6 +1035,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
@@ -1029,33 +1071,6 @@
       <protection locked="0" hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1167,28 +1182,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}">
-  <header guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}" dateTime="2023-01-19T09:57:44" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{52EF4F2F-1983-458B-80BD-138E29AD6796}" name="Richard Ketchersid" id="-1739582647" dateTime="2023-01-19T09:57:44"/>
-</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1457,7 +1450,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1470,80 +1463,80 @@
     <col min="6" max="6" width="18.69921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.69921875" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="19" customWidth="1"/>
     <col min="10" max="10" width="20.8984375" customWidth="1"/>
     <col min="11" max="11" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="69" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="70"/>
+      <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="75"/>
+      <c r="C4" s="78"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="83"/>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84"/>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="30" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1577,30 +1570,30 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="74">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="75">
         <v>1</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="76">
         <f>F13/D13</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="75">
         <f>(1-G13)/G13</f>
         <v>379</v>
       </c>
@@ -1610,80 +1603,90 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="12"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="6" t="str">
         <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H14)),H14,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="12"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="6" t="str">
         <f t="shared" ref="I15:I17" si="0">"Your odds of winning are "&amp;IF(NOT(ISBLANK(H15)),H15,"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="12"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Your odds of winning are ??? to 1!</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="6" t="str">
         <f>"Your odds of winning are "&amp;IF(NOT(ISBLANK(H18)),ROUND(H18,0),"???")&amp;" to 1!"</f>
         <v>Your odds of winning are ??? to 1!</v>
@@ -1693,22 +1696,22 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="77"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="78"/>
-      <c r="G21" s="79"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="78"/>
-      <c r="G22" s="79"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="84"/>
     </row>
     <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
@@ -1736,12 +1739,12 @@
       <c r="H28" s="96"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1816,319 +1819,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1D97F0-2451-47BE-A51B-12A3F1003A2C}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showRuler="0" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="21.8984375" style="38" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="18.69921875" style="38" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="18.69921875" style="39" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="39" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="40" customWidth="1"/>
-    <col min="9" max="9" width="34.09765625" style="41" customWidth="1"/>
-    <col min="10" max="10" width="20.8984375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="23.19921875" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="40"/>
+    <col min="1" max="1" width="71.5" style="34" customWidth="1"/>
+    <col min="2" max="2" width="21.8984375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="25.69921875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="18.69921875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" style="35" customWidth="1"/>
+    <col min="8" max="8" width="15.69921875" style="36" customWidth="1"/>
+    <col min="9" max="9" width="34.09765625" style="37" customWidth="1"/>
+    <col min="10" max="10" width="20.8984375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="23.19921875" style="36" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="98"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="45" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" s="52" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:9" s="48" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="51" t="s">
+      <c r="H9" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="51" t="s">
+      <c r="I9" s="47" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="51">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="52">
         <v>1</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="53">
         <f t="shared" ref="G10:G15" si="0">F10/D10</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H10" s="56">
+      <c r="H10" s="52">
         <f>(1-G10)/G10</f>
         <v>379</v>
       </c>
-      <c r="I10" s="51" t="str">
+      <c r="I10" s="47" t="str">
         <f>"Your odds of winning are "&amp;H10&amp;" to 1!"</f>
         <v>Your odds of winning are 379 to 1!</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="56">
         <f>PERMUT(20,3)</f>
         <v>6840</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="57">
         <v>1</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="58">
         <f t="shared" si="0"/>
         <v>1.4619883040935673E-4</v>
       </c>
-      <c r="H11" s="63">
+      <c r="H11" s="59">
         <f>(1-G11)/G11</f>
         <v>6839</v>
       </c>
-      <c r="I11" s="51" t="str">
+      <c r="I11" s="47" t="str">
         <f>"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H11)),H11&amp;"!","???")</f>
         <v>Your odds of winning are 1 to 6839!</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="58" t="s">
+      <c r="B12" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="56">
         <f>PERMUT(20,4)</f>
         <v>116280</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="57">
         <v>1</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="58">
         <f t="shared" si="0"/>
         <v>8.5999312005503954E-6</v>
       </c>
-      <c r="H12" s="63">
+      <c r="H12" s="59">
         <f t="shared" ref="H12:H15" si="1">(1-G12)/G12</f>
         <v>116279.00000000001</v>
       </c>
-      <c r="I12" s="51" t="str">
+      <c r="I12" s="47" t="str">
         <f t="shared" ref="I12:I15" si="2">"Your odds of winning are 1 to "&amp;IF(NOT(ISBLANK(H12)),H12&amp;"!","???")</f>
         <v>Your odds of winning are 1 to 116279!</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="66">
+      <c r="D13" s="62">
         <f>PERMUT(50,4)</f>
         <v>5527200</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="61">
+      <c r="F13" s="57">
         <v>1</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="58">
         <f t="shared" si="0"/>
         <v>1.8092343320306847E-7</v>
       </c>
-      <c r="H13" s="63">
+      <c r="H13" s="59">
         <f t="shared" si="1"/>
         <v>5527199</v>
       </c>
-      <c r="I13" s="51" t="str">
+      <c r="I13" s="47" t="str">
         <f t="shared" si="2"/>
         <v>Your odds of winning are 1 to 5527199!</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="65" t="s">
+      <c r="B14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="66">
+      <c r="D14" s="62">
         <f>COMBIN(40,5)</f>
         <v>658008</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="61">
+      <c r="F14" s="57">
         <v>1</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="58">
         <f t="shared" si="0"/>
         <v>1.5197383618436251E-6</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="59">
         <f t="shared" si="1"/>
         <v>658007</v>
       </c>
-      <c r="I14" s="51" t="str">
+      <c r="I14" s="47" t="str">
         <f t="shared" si="2"/>
         <v>Your odds of winning are 1 to 658007!</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="68">
+      <c r="D15" s="64">
         <f>COMBIN(40,5)</f>
         <v>658008</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="63">
+      <c r="F15" s="59">
         <f>COMBIN(5,3)*COMBIN(35,2)</f>
         <v>5950</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="58">
         <f t="shared" si="0"/>
         <v>9.0424432529695696E-3</v>
       </c>
-      <c r="H15" s="63">
+      <c r="H15" s="59">
         <f t="shared" si="1"/>
         <v>109.58957983193277</v>
       </c>
-      <c r="I15" s="51" t="str">
+      <c r="I15" s="47" t="str">
         <f t="shared" si="2"/>
         <v>Your odds of winning are 1 to 109.589579831933!</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G16" s="69"/>
+      <c r="G16" s="65"/>
     </row>
     <row r="17" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G17" s="69"/>
+      <c r="G17" s="65"/>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G18" s="69"/>
+      <c r="G18" s="65"/>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G19" s="69"/>
+      <c r="G19" s="65"/>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G20" s="69"/>
+      <c r="G20" s="65"/>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G21" s="69"/>
+      <c r="G21" s="65"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="O3dQ52sMccr9WEd7YzllXpdg+o2OpidLKv57FfDrecRvtL1L8JhE5zixpg2UW0FuqFaD3HVuMT9KUWmVQ8btHQ==" saltValue="NgTvaQHUq8Xe5i5+BKF6cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
@@ -2158,55 +2161,55 @@
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
     </row>
   </sheetData>
   <customSheetViews>

--- a/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:81_{21EF9984-3F0C-4CC3-8676-25E8219F77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11519DAC-B3C4-4507-A8BF-7C82ABFEA9B7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{ED8FBAD9-C0BE-4094-B3F8-534588D96486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
-    <sheet name="soln1" sheetId="2" r:id="rId2"/>
+    <sheet name="soln1" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1182,6 +1182,28 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}">
+  <header guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}" dateTime="2023-08-10T14:08:13" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}" name="Richard Ketchersid" id="-1739531746" dateTime="2023-08-10T14:08:13"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1450,7 +1472,7 @@
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2136,8 +2158,8 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="O3dQ52sMccr9WEd7YzllXpdg+o2OpidLKv57FfDrecRvtL1L8JhE5zixpg2UW0FuqFaD3HVuMT9KUWmVQ8btHQ==" saltValue="NgTvaQHUq8Xe5i5+BKF6cQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <customSheetViews>
-    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden" showRuler="0" topLeftCell="B11">
-      <selection activeCell="F16" sqref="F16"/>
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" state="hidden" showRuler="0" topLeftCell="B7">
+      <selection activeCell="C11" sqref="C11:C15"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
     </customSheetView>

--- a/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
+++ b/144F20/Topic 6/QR 3-3 Tech Template Modified.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gcumail-my.sharepoint.com/personal/richard_ketchersid_gcu_edu/Documents/Course Materials/git/Teaching/144F20/Topic 6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{ED8FBAD9-C0BE-4094-B3F8-534588D96486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:80_{107D92DA-0EA5-4593-A4C3-616DEE538138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D38828B-A312-4A75-B30E-3A0A56DB593D}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="19272" windowHeight="11400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="9072" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" mergeInterval="0" personalView="1" xWindow="64" yWindow="64" windowWidth="1606" windowHeight="950" tabRatio="500" activeSheetId="1"/>
+    <customWorkbookView name="Richard Ketchersid - Personal View" guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" mergeInterval="0" personalView="1" xWindow="90" yWindow="90" windowWidth="1440" windowHeight="756" tabRatio="500" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Game</t>
   </si>
@@ -214,13 +214,13 @@
     <t>Enter Name  ⇒</t>
   </si>
   <si>
+    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
+  </si>
+  <si>
+    <t>Read the "Extra Help and Instructions" post for a hint.</t>
+  </si>
+  <si>
     <t>Your Name Here</t>
-  </si>
-  <si>
-    <t>Ignore the Halo preview you must download and open the file in Excel to correctly see the contents.</t>
-  </si>
-  <si>
-    <t>Read the "Extra Help and Instructions" post for a hint.</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -978,15 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1185,8 +1176,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}">
-  <header guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}" dateTime="2023-08-10T14:08:13" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{1BC9218F-9280-433F-A669-783E217C737A}">
+  <header guid="{1BC9218F-9280-433F-A669-783E217C737A}" dateTime="2023-08-27T13:58:53" maxSheetId="4" userName="Richard Ketchersid" r:id="rId1">
     <sheetIdMap count="3">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -1202,7 +1193,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{BF880D88-DC8C-43F9-B2A3-26988EB619E2}" name="Richard Ketchersid" id="-1739531746" dateTime="2023-08-10T14:08:13"/>
+  <userInfo guid="{1BC9218F-9280-433F-A669-783E217C737A}" name="Richard Ketchersid" id="-1739580330" dateTime="2023-08-27T13:58:53"/>
 </users>
 </file>
 
@@ -1471,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1496,20 +1487,20 @@
         <v>43</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="66"/>
     </row>
     <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="75"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="82" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1520,7 +1511,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="86"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="23" t="s">
         <v>39</v>
       </c>
@@ -1530,7 +1521,7 @@
       <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="87"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="25" t="s">
         <v>16</v>
       </c>
@@ -1595,27 +1586,27 @@
       <c r="A13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="71">
         <f>PERMUT(20,2)</f>
         <v>380</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="75">
+      <c r="F13" s="72">
         <v>1</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="73">
         <f>F13/D13</f>
         <v>2.631578947368421E-3</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="72">
         <f>(1-G13)/G13</f>
         <v>379</v>
       </c>
@@ -1629,9 +1620,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="31"/>
-      <c r="C14" s="70" t="s">
-        <v>31</v>
-      </c>
+      <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="7"/>
       <c r="F14" s="14"/>
@@ -1647,9 +1636,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="70" t="s">
-        <v>30</v>
-      </c>
+      <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="7"/>
       <c r="F15" s="14"/>
@@ -1665,9 +1652,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="32"/>
-      <c r="C16" s="71" t="s">
-        <v>34</v>
-      </c>
+      <c r="C16" s="8"/>
       <c r="D16" s="12"/>
       <c r="E16" s="8"/>
       <c r="F16" s="14"/>
@@ -1683,9 +1668,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="32"/>
-      <c r="C17" s="71" t="s">
-        <v>41</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="12"/>
       <c r="E17" s="8"/>
       <c r="F17" s="14"/>
@@ -1701,9 +1684,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="72" t="s">
-        <v>41</v>
-      </c>
+      <c r="C18" s="9"/>
       <c r="D18" s="13"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -1718,47 +1699,47 @@
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="80"/>
+      <c r="G20" s="77"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F23" s="83"/>
-      <c r="G23" s="84"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="81"/>
     </row>
     <row r="24" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
+      <c r="F25" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F26" s="91"/>
-      <c r="G26" s="92"/>
-      <c r="H26" s="93"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="90"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F27" s="91"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="93"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F28" s="94"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="96"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="20" t="s">
@@ -1772,7 +1753,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0" topLeftCell="B1">
+    <customSheetView guid="{13B6492D-170C-45E1-97D8-793CC53D410C}" showRuler="0">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1863,10 +1844,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:9" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="98"/>
+      <c r="C2" s="95"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="38" t="s">
@@ -2183,55 +2164,55 @@
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="C4" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
     </row>
   </sheetData>
   <customSheetViews>
